--- a/Bellum.xlsx
+++ b/Bellum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remym\OneDrive\Documents\Unity\Bellum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3EA80C-A20B-4BCC-B0C7-E64F195C7140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E47E30-10B7-406C-93C3-4C997162E8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D3578EDC-470B-4FBB-ACEC-55BDA62F5B4E}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Bellum.xlsx
+++ b/Bellum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remym\OneDrive\Documents\Unity\Bellum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E47E30-10B7-406C-93C3-4C997162E8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1074AB5-51AA-4E9F-B40A-FCD09AA51BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D3578EDC-470B-4FBB-ACEC-55BDA62F5B4E}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>Après un dégat avec les tourelles</t>
   </si>
   <si>
-    <t>Nombre de coup pur tuer avec les tourelles</t>
+    <t>Nombre de coup pour tuer avec les tourelles</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354A09B0-EA87-40DC-942E-F58CD9BEE168}">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Bellum.xlsx
+++ b/Bellum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remym\OneDrive\Documents\Unity\Bellum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1074AB5-51AA-4E9F-B40A-FCD09AA51BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C123472C-6763-420E-B049-AF64D24D992B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D3578EDC-470B-4FBB-ACEC-55BDA62F5B4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>Dégat</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Nombre de coup pour tuer avec les tourelles</t>
+  </si>
+  <si>
+    <t>MetalOnHit</t>
+  </si>
+  <si>
+    <t>MetalOnDeath</t>
+  </si>
+  <si>
+    <t>MetalOnDeath (Boss)</t>
   </si>
 </sst>
 </file>
@@ -262,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,6 +334,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354A09B0-EA87-40DC-942E-F58CD9BEE168}">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,13 +672,16 @@
     <col min="3" max="5" width="10.90625" style="1"/>
     <col min="6" max="6" width="35.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="1"/>
+    <col min="8" max="8" width="10.90625" style="1"/>
+    <col min="9" max="9" width="12.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -682,8 +697,14 @@
       <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>20</v>
       </c>
@@ -701,8 +722,16 @@
         <f>ROUNDUP(E3/B3,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="I3" s="22">
+        <f>G3*B12</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="22">
+        <f>I3+B14</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -712,8 +741,14 @@
       <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -725,8 +760,16 @@
         <f>ROUNDUP(E3/(B3+B8),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="I5" s="22">
+        <f>G5*B12</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="22">
+        <f>I5+B14</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
@@ -743,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="12">
         <v>40</v>
       </c>
@@ -762,7 +805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -773,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="20">
@@ -785,7 +828,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
       <c r="D12" s="13" t="s">
         <v>1</v>
       </c>
@@ -799,7 +850,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="14">
         <v>3</v>
       </c>
@@ -815,7 +869,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="22">
+        <v>5</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="18" t="s">
@@ -825,7 +882,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="20">
@@ -837,7 +897,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="22">
+        <v>50</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="4:7" ht="18.5" x14ac:dyDescent="0.35">

--- a/Bellum.xlsx
+++ b/Bellum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remym\OneDrive\Documents\Unity\Bellum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C123472C-6763-420E-B049-AF64D24D992B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA25818-DF54-430F-8094-B29BF1EBAD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D3578EDC-470B-4FBB-ACEC-55BDA62F5B4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
   <si>
     <t>Dégat</t>
   </si>
@@ -39,18 +39,6 @@
     <t>Après un dégat</t>
   </si>
   <si>
-    <t>Nombre de coup pur tuer</t>
-  </si>
-  <si>
-    <t>Dégat des tourelles</t>
-  </si>
-  <si>
-    <t>Après un dégat avec les tourelles</t>
-  </si>
-  <si>
-    <t>Nombre de coup pour tuer avec les tourelles</t>
-  </si>
-  <si>
     <t>MetalOnHit</t>
   </si>
   <si>
@@ -58,6 +46,57 @@
   </si>
   <si>
     <t>MetalOnDeath (Boss)</t>
+  </si>
+  <si>
+    <t>Prix tourelle</t>
+  </si>
+  <si>
+    <t>Nombre à tuer avant de pouvoir construire une autre tourelle</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Nombre de coup pour tuer</t>
+  </si>
+  <si>
+    <t>Dégat d'une tourelle</t>
+  </si>
+  <si>
+    <t>Nombre de coup pour tuer avec une tourelle</t>
+  </si>
+  <si>
+    <t>Dégat avec 4 tourelles</t>
+  </si>
+  <si>
+    <t>Cadence des tourelles</t>
+  </si>
+  <si>
+    <t>Cadence de tir</t>
+  </si>
+  <si>
+    <t>Temps pour tuer avec une tourelle</t>
+  </si>
+  <si>
+    <t>Après un dégat d'une tourelle</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>Munitions</t>
+  </si>
+  <si>
+    <t>Temps pour tuer (+2 tout les 4 avec recharge)</t>
+  </si>
+  <si>
+    <t>Temps de tir max</t>
   </si>
 </sst>
 </file>
@@ -115,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -271,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,6 +382,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,348 +725,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354A09B0-EA87-40DC-942E-F58CD9BEE168}">
-  <dimension ref="B1:J25"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1"/>
-    <col min="2" max="2" width="20.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.90625" style="1"/>
-    <col min="6" max="6" width="35.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="1"/>
-    <col min="9" max="9" width="12.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.90625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" style="1"/>
+    <col min="5" max="5" width="35.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="52.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10">
+      <c r="D2" s="6">
         <v>20</v>
       </c>
-      <c r="D3" s="14">
+      <c r="E2" s="15">
+        <f>D2-A2</f>
+        <v>18</v>
+      </c>
+      <c r="F2" s="16">
+        <f>ROUNDUP(D2/A2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26">
+        <f>F2*A5+(ROUNDDOWN((F2*A5)/A14,0)*A8)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="22">
+        <f>F2*A29</f>
+        <v>20</v>
+      </c>
+      <c r="K2" s="22">
+        <f>J2+A31</f>
+        <v>25</v>
+      </c>
+      <c r="M2" s="22">
+        <f>A23/K2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="20">
+        <f>D2-A17</f>
+        <v>18</v>
+      </c>
+      <c r="F4" s="21">
+        <f>ROUNDUP(D2/A17,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="26">
+        <f>F4*A26</f>
+        <v>20</v>
+      </c>
+      <c r="J4" s="22">
+        <f>F4*A29</f>
+        <v>20</v>
+      </c>
+      <c r="K4" s="22">
+        <f>J4+A31</f>
+        <v>25</v>
+      </c>
+      <c r="M4" s="22">
+        <f>A23/K4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="15">
+        <f>D7-A2</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="16">
+        <f>ROUNDUP(D7/A2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26">
+        <f>F7*A5+(ROUNDDOWN((F7*A5)/A14,0)*A8)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J7" s="22">
+        <f>F7*A29</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="22">
+        <f>J7+A31</f>
+        <v>11</v>
+      </c>
+      <c r="M7" s="27">
+        <f>A23/K7</f>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="20">
+        <f>D7-A17</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="21">
+        <f>ROUNDUP(D7/A17,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26">
+        <f>F9*A26</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="22">
+        <f>F9*A29</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="22">
+        <f>J9+A31</f>
+        <v>11</v>
+      </c>
+      <c r="M9" s="27">
+        <f>A23/K9</f>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
         <v>100</v>
       </c>
-      <c r="F3" s="15">
-        <f>E3-B3</f>
-        <v>80</v>
-      </c>
-      <c r="G3" s="16">
-        <f>ROUNDUP(E3/B3,0)</f>
+      <c r="E12" s="17">
+        <f>D12-A2</f>
+        <v>98</v>
+      </c>
+      <c r="F12" s="16">
+        <f>ROUNDUP(D12/A2,0)</f>
+        <v>50</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26">
+        <f>F12*A5+(ROUNDDOWN((F12*A5)/A14,0)*A8)</f>
+        <v>14</v>
+      </c>
+      <c r="J12" s="22">
+        <f>F12*A29</f>
+        <v>100</v>
+      </c>
+      <c r="K12" s="22">
+        <f>J12+A33</f>
+        <v>150</v>
+      </c>
+      <c r="M12" s="27">
+        <f>A23/K12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <f>G3*B12</f>
-        <v>10</v>
-      </c>
-      <c r="J3" s="22">
-        <f>I3+B14</f>
+      <c r="M13" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="22">
+        <f>A11*A5</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="20">
+        <f>D12-A17</f>
+        <v>98</v>
+      </c>
+      <c r="F14" s="21">
+        <f>ROUNDUP(D12/A17,0)</f>
+        <v>50</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="26">
+        <f>F14*A26</f>
+        <v>100</v>
+      </c>
+      <c r="J14" s="22">
+        <f>F14*A29</f>
+        <v>100</v>
+      </c>
+      <c r="K14" s="22">
+        <f>J14+A33</f>
+        <v>150</v>
+      </c>
+      <c r="M14" s="27">
+        <f>A23/K14</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>600</v>
+      </c>
+      <c r="E17" s="17">
+        <f>D17-A2</f>
+        <v>598</v>
+      </c>
+      <c r="F17" s="16">
+        <f>ROUNDUP(D17/A2,0)</f>
+        <v>300</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="26">
+        <f>F17*A5+(ROUNDDOWN((F17*A5)/A14,0)*A8)</f>
+        <v>90</v>
+      </c>
+      <c r="J17" s="22">
+        <f>F17*A29</f>
+        <v>600</v>
+      </c>
+      <c r="K17" s="22">
+        <f>J17+A31</f>
+        <v>605</v>
+      </c>
+      <c r="M17" s="27">
+        <f>A23/K17</f>
+        <v>8.2644628099173556E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="18" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="20">
+        <f>D17-A17</f>
+        <v>598</v>
+      </c>
+      <c r="F19" s="21">
+        <f>ROUNDUP(D17/(A17+A2),0)</f>
+        <v>150</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="26">
+        <f>F19*A26</f>
+        <v>300</v>
+      </c>
+      <c r="J19" s="22">
+        <f>F19*A29</f>
+        <v>300</v>
+      </c>
+      <c r="K19" s="22">
+        <f>J19+A31</f>
+        <v>305</v>
+      </c>
+      <c r="M19" s="27">
+        <f>A23/K19</f>
+        <v>0.16393442622950818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <f>A17*4</f>
+        <v>8</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="C21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="14">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="17">
+        <f>D22-A2</f>
+        <v>998</v>
+      </c>
+      <c r="F22" s="16">
+        <f>ROUNDUP(D22/A2,0)</f>
+        <v>500</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="26">
+        <f>F22*A5+(ROUNDDOWN((F22*A5)/A14,0)*A8)</f>
+        <v>150</v>
+      </c>
+      <c r="J22" s="22">
+        <f>F22*A29</f>
+        <v>1000</v>
+      </c>
+      <c r="K22" s="22">
+        <f>J22+A31</f>
+        <v>1005</v>
+      </c>
+      <c r="M22" s="27">
+        <f>A23/K22</f>
+        <v>4.975124378109453E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="28">
+        <v>50</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="20">
+        <f>D22-A17</f>
+        <v>998</v>
+      </c>
+      <c r="F24" s="21">
+        <f>ROUNDUP(D22/(A2+A17),0)</f>
+        <v>250</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="26">
+        <f>F24*A26</f>
+        <v>500</v>
+      </c>
+      <c r="J24" s="22">
+        <f>F24*A29</f>
+        <v>500</v>
+      </c>
+      <c r="K24" s="22">
+        <f>J24+A31</f>
+        <v>505</v>
+      </c>
+      <c r="M24" s="27">
+        <f>A23/K24</f>
+        <v>9.9009900990099015E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="20">
-        <f>E3-B3-B8</f>
-        <v>40</v>
-      </c>
-      <c r="G5" s="21">
-        <f>ROUNDUP(E3/(B3+B8),0)</f>
-        <v>2</v>
-      </c>
-      <c r="I5" s="22">
-        <f>G5*B12</f>
-        <v>4</v>
-      </c>
-      <c r="J5" s="22">
-        <f>I5+B14</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12">
-        <v>40</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>200</v>
-      </c>
-      <c r="F8" s="15">
-        <f>E8-B3</f>
-        <v>180</v>
-      </c>
-      <c r="G8" s="16">
-        <f>ROUNDUP(E8/B3,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="20">
-        <f>E8-B3-B8</f>
-        <v>140</v>
-      </c>
-      <c r="G10" s="21">
-        <f>ROUNDUP(E8/(B3+B8),0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="22">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7">
-        <v>400</v>
-      </c>
-      <c r="F13" s="17">
-        <f>E13-B3</f>
-        <v>380</v>
-      </c>
-      <c r="G13" s="16">
-        <f>ROUNDUP(E13/B3,0)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="22">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="20">
-        <f>E13-B8-B3</f>
-        <v>340</v>
-      </c>
-      <c r="G15" s="21">
-        <f>ROUNDUP(E13/(B3+B8),0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="22">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="22">
         <v>50</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="4:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="D17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="14">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7">
-        <v>600</v>
-      </c>
-      <c r="F18" s="17">
-        <f>E18-B3</f>
-        <v>580</v>
-      </c>
-      <c r="G18" s="16">
-        <f>ROUNDUP(E18/B3,0)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="20">
-        <f>E18-B3-B8</f>
-        <v>540</v>
-      </c>
-      <c r="G20" s="21">
-        <f>ROUNDUP(E18/(B8+B3),0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="D22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="14">
-        <v>5</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="17">
-        <f>E23-B3</f>
-        <v>980</v>
-      </c>
-      <c r="G23" s="16">
-        <f>ROUNDUP(E23/B3,0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="F24" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F25" s="20">
-        <f>E23-B3-B8</f>
-        <v>940</v>
-      </c>
-      <c r="G25" s="21">
-        <f>ROUNDUP(E23/(B3+B8),0)</f>
-        <v>17</v>
       </c>
     </row>
   </sheetData>
